--- a/eportal/csv/student_psychomotor.xlsx
+++ b/eportal/csv/student_psychomotor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osotech Software\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\smatechportal\eportal\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC5A69-F13E-4E8E-93E4-65E9EBD40E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D4A78-DC9E-4744-87AB-B4A51358EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>REGISTRATION NO</t>
   </si>
   <si>
-    <t>2021C263130001</t>
+    <t>2021C123450003</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
